--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Desktop\eps-1.4.3-hong-kong-wipB\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="10050" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="SoCDTtiNTY" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>SoCDTtiNTY Share of Cargo Dist Transported that is New This Year</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>freight</t>
+  </si>
+  <si>
+    <t>Share that is New (dimensionless)</t>
   </si>
 </sst>
 </file>
@@ -123,11 +126,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -509,9 +515,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -520,7 +524,10 @@
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
@@ -533,10 +540,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8.1500000000000003E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="C2">
-        <v>8.3000000000000004E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -544,10 +551,10 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.5000000000000002E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="C3">
-        <v>6.6000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,7 +565,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
       <c r="C4">
-        <v>4.2500000000000003E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -566,7 +573,7 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4.2999999999999997E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C5">
         <v>2.9000000000000001E-2</v>
@@ -588,7 +595,7 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>0.14000000000000001</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -600,15 +607,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -842,6 +840,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -852,23 +859,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F5F6882-0789-423C-9D51-7FE368DB3B77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1974DFD2-8A77-44A6-A8C9-3B78C6A8F917}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1542D730-DB3B-42B6-ACDB-E0C050AF4211}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05C7A318-50DC-4ED0-8078-BB06C0C0AB06}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864B9C6F-8A1E-4D6D-AC05-ADAD8ADF2231}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3858F5C4-4D9A-4E64-87CA-F781555B1B7E}"/>
 </file>
--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_5114319227ACA529BFC50D6B03749735382DA3C1" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{676AACC9-96AE-4BB7-B247-CA6AB7B31272}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="10050"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="SoCDTtiNTY" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>SoCDTtiNTY Share of Cargo Dist Transported that is New This Year</t>
   </si>
@@ -84,11 +93,14 @@
   <si>
     <t>Share that is New (dimensionless)</t>
   </si>
+  <si>
+    <t>motobikes F are assumed same with LDV P</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,6 +240,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -263,6 +292,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,10 +484,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -509,13 +555,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -524,7 +572,7 @@
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -535,7 +583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -546,7 +594,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -557,7 +605,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -568,7 +616,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -579,7 +627,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -590,7 +638,7 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -598,7 +646,11 @@
         <v>5.8700000000000002E-2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f>B2</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -607,6 +659,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -840,32 +910,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1974DFD2-8A77-44A6-A8C9-3B78C6A8F917}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3858F5C4-4D9A-4E64-87CA-F781555B1B7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05C7A318-50DC-4ED0-8078-BB06C0C0AB06}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05C7A318-50DC-4ED0-8078-BB06C0C0AB06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3858F5C4-4D9A-4E64-87CA-F781555B1B7E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1974DFD2-8A77-44A6-A8C9-3B78C6A8F917}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\Hong Kong\Models\eps-hongkong\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_5114319227ACA529BFC50D6B03749735382DA3C1" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{676AACC9-96AE-4BB7-B247-CA6AB7B31272}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="10050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="SoCDTtiNTY" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>SoCDTtiNTY Share of Cargo Dist Transported that is New This Year</t>
   </si>
@@ -90,17 +81,11 @@
   <si>
     <t>freight</t>
   </si>
-  <si>
-    <t>Share that is New (dimensionless)</t>
-  </si>
-  <si>
-    <t>motobikes F are assumed same with LDV P</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,14 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -240,23 +222,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -292,23 +257,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,7 +432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -555,14 +503,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,10 +520,7 @@
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
@@ -583,29 +528,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.5999999999999998E-2</v>
+        <v>8.1500000000000003E-2</v>
       </c>
       <c r="C2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.3499999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -613,21 +558,21 @@
         <v>4.1599999999999998E-2</v>
       </c>
       <c r="C4">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.9000000000000001E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="C5">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -638,19 +583,15 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>5.8700000000000002E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C7">
-        <f>B2</f>
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
+        <v>8.2500000000000004E-2</v>
       </c>
     </row>
   </sheetData>
@@ -668,15 +609,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -910,8 +842,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3858F5C4-4D9A-4E64-87CA-F781555B1B7E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864B9C6F-8A1E-4D6D-AC05-ADAD8ADF2231}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -921,15 +862,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05C7A318-50DC-4ED0-8078-BB06C0C0AB06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1974DFD2-8A77-44A6-A8C9-3B78C6A8F917}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1542D730-DB3B-42B6-ACDB-E0C050AF4211}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -946,4 +879,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F5F6882-0789-423C-9D51-7FE368DB3B77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\Hong Kong\Models\eps-hongkong\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-hongkong\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="10050" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="SoCDTtiNTY" sheetId="2" r:id="rId2"/>
+    <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId2"/>
+    <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>SoCDTtiNTY Share of Cargo Dist Transported that is New This Year</t>
   </si>
@@ -76,10 +77,28 @@
     <t>motorbikes</t>
   </si>
   <si>
-    <t>passenger</t>
-  </si>
-  <si>
-    <t>freight</t>
+    <t>Share that is New (dimensionless)</t>
+  </si>
+  <si>
+    <t>battery electric vehicle</t>
+  </si>
+  <si>
+    <t>natural gas vehicle</t>
+  </si>
+  <si>
+    <t>gasoline vehicle</t>
+  </si>
+  <si>
+    <t>diesel vehicle</t>
+  </si>
+  <si>
+    <t>plugin hybrid vehicle</t>
+  </si>
+  <si>
+    <t>LPG vehicle</t>
+  </si>
+  <si>
+    <t>hydrogen vehicle</t>
   </si>
 </sst>
 </file>
@@ -123,11 +142,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,16 +460,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -452,47 +477,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -507,28 +532,45 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="8" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -536,10 +578,31 @@
         <v>8.1500000000000003E-2</v>
       </c>
       <c r="C2">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f>$B2</f>
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:H2" si="0">$B2</f>
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>8.1500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -547,10 +610,31 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C3">
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:H7" si="1">$B3</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -558,10 +642,31 @@
         <v>4.1599999999999998E-2</v>
       </c>
       <c r="C4">
-        <v>4.2500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -569,10 +674,31 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="C5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -580,10 +706,31 @@
         <v>2.9819999999999999E-2</v>
       </c>
       <c r="C6">
-        <v>3.0300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>2.9819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -591,7 +738,28 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C7">
-        <v>8.2500000000000004E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -599,292 +767,242 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <xsd:import namespace="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="18" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="19" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7889d872-e2a2-4afb-87bc-97561eced75f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c9df191c-55f2-496b-9838-9a5abe4742ad" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="14" nillable="true" ma:displayName="MediaServiceLocation" ma:description="" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="20" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="21" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864B9C6F-8A1E-4D6D-AC05-ADAD8ADF2231}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1542D730-DB3B-42B6-ACDB-E0C050AF4211}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F5F6882-0789-423C-9D51-7FE368DB3B77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="8" width="14.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C2">
+        <f>$B2</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:H2" si="0">$B2</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:H7" si="1">$B3</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>3.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>